--- a/172/REFINE/AXON_172_paw_cyclereport_header.xlsx
+++ b/172/REFINE/AXON_172_paw_cyclereport_header.xlsx
@@ -15,270 +15,273 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="93">
-  <si>
-    <t>ATTRIBUTE_NAME</t>
-  </si>
-  <si>
-    <t>DATA_TYPE</t>
-  </si>
-  <si>
-    <t>TECHNICAL_NAME</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="94">
+  <si>
+    <t>ATTRIBUTE NAME</t>
+  </si>
+  <si>
+    <t>TECHNICAL NAME</t>
   </si>
   <si>
     <t>DEFINITION</t>
   </si>
   <si>
+    <t>DATA TYPE</t>
+  </si>
+  <si>
     <t>BUSINESS LOGIC</t>
   </si>
   <si>
-    <t>APPLICATION</t>
-  </si>
-  <si>
-    <t>APPR_COMMENT</t>
-  </si>
-  <si>
-    <t>APPR_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>APPR_TIMESTAMP_UTC</t>
-  </si>
-  <si>
-    <t>APPR_USERFULLNAME</t>
-  </si>
-  <si>
-    <t>APPR_USERNAME</t>
-  </si>
-  <si>
-    <t>AREA</t>
-  </si>
-  <si>
-    <t>BATCH</t>
-  </si>
-  <si>
-    <t>CYCLE_ID</t>
-  </si>
-  <si>
-    <t>CYCLE_RESULT</t>
-  </si>
-  <si>
-    <t>CYCLE_RESULT_LOCAL</t>
-  </si>
-  <si>
-    <t>CYCLE_RESULT_TEXT</t>
-  </si>
-  <si>
-    <t>CYCLE_TYPE</t>
-  </si>
-  <si>
-    <t>DATA_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>DATA_TIMESTAMP_UTC</t>
-  </si>
-  <si>
-    <t>END_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>PARAM_SET_NAME</t>
-  </si>
-  <si>
-    <t>PROCESS_CELL</t>
-  </si>
-  <si>
-    <t>PRODUCT</t>
-  </si>
-  <si>
-    <t>R_DEL_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_DEL_TMSTMP</t>
-  </si>
-  <si>
-    <t>R_FCLTY_CD</t>
-  </si>
-  <si>
-    <t>R_INS_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_INS_TMSTMP</t>
-  </si>
-  <si>
-    <t>R_RCRD_STS_CD</t>
-  </si>
-  <si>
-    <t>R_UPD_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_UPD_TMSTMP</t>
-  </si>
-  <si>
-    <t>SIGN_COMMENT</t>
-  </si>
-  <si>
-    <t>SIGN_MEANING</t>
-  </si>
-  <si>
-    <t>SIGN_MEANING_LOCAL</t>
-  </si>
-  <si>
-    <t>SIGN_NODENAME</t>
-  </si>
-  <si>
-    <t>SIGN_USERFULLNAME</t>
-  </si>
-  <si>
-    <t>SIGN_USERNAME</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>START_TIMESTAMP</t>
+    <t>application</t>
+  </si>
+  <si>
+    <t>appr_comment</t>
+  </si>
+  <si>
+    <t>appr_timestamp</t>
+  </si>
+  <si>
+    <t>appr_timestamp_utc</t>
+  </si>
+  <si>
+    <t>appr_userfullname</t>
+  </si>
+  <si>
+    <t>appr_username</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>cycle_id</t>
+  </si>
+  <si>
+    <t>cycle_result</t>
+  </si>
+  <si>
+    <t>cycle_result_local</t>
+  </si>
+  <si>
+    <t>cycle_result_text</t>
+  </si>
+  <si>
+    <t>cycle_type</t>
+  </si>
+  <si>
+    <t>data_timestamp</t>
+  </si>
+  <si>
+    <t>data_timestamp_utc</t>
+  </si>
+  <si>
+    <t>end_timestamp</t>
+  </si>
+  <si>
+    <t>param_set_name</t>
+  </si>
+  <si>
+    <t>process_cell</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>r_del_load_id</t>
+  </si>
+  <si>
+    <t>r_del_tmstmp</t>
+  </si>
+  <si>
+    <t>r_fclty_cd</t>
+  </si>
+  <si>
+    <t>r_ins_load_id</t>
+  </si>
+  <si>
+    <t>r_ins_tmstmp</t>
+  </si>
+  <si>
+    <t>r_rcrd_sts_cd</t>
+  </si>
+  <si>
+    <t>r_upd_load_id</t>
+  </si>
+  <si>
+    <t>r_upd_tmstmp</t>
+  </si>
+  <si>
+    <t>sign_comment</t>
+  </si>
+  <si>
+    <t>sign_meaning</t>
+  </si>
+  <si>
+    <t>sign_meaning_local</t>
+  </si>
+  <si>
+    <t>sign_nodename</t>
+  </si>
+  <si>
+    <t>sign_userfullname</t>
+  </si>
+  <si>
+    <t>sign_username</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>start_timestamp</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>timestamp_utc</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>r_load_id</t>
+  </si>
+  <si>
+    <t>r_src_id</t>
+  </si>
+  <si>
+    <t>COLUMN application OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN appr_comment OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN appr_timestamp OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN appr_timestamp_utc OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN appr_userfullname OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN appr_username OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN area OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN batch OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN cycle_id OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN cycle_result OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN cycle_result_local OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN cycle_result_text OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN cycle_type OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN data_timestamp OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN data_timestamp_utc OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN end_timestamp OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN param_set_name OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN process_cell OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN product OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN r_del_load_id OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN r_del_tmstmp OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN r_fclty_cd OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN r_ins_load_id OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN r_ins_tmstmp OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN r_rcrd_sts_cd OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN r_upd_load_id OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN r_upd_tmstmp OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN sign_comment OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN sign_meaning OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN sign_meaning_local OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN sign_nodename OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN sign_userfullname OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN sign_username OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN site OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN start_timestamp OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN timestamp OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN timestamp_utc OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN unit OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN r_load_id OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>COLUMN r_src_id OF TABLE PAW_CYCLEREPORT_HEADER</t>
+  </si>
+  <si>
+    <t>STRING</t>
   </si>
   <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
-    <t>TIMESTAMP_UTC</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>R_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_SRC_ID</t>
-  </si>
-  <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>DECIMAL(1,0)</t>
   </si>
   <si>
     <t>BIGINT</t>
-  </si>
-  <si>
-    <t>COLUMN APPLICATION OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN APPR_COMMENT OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN APPR_TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN APPR_TIMESTAMP_UTC OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN APPR_USERFULLNAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN APPR_USERNAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN AREA OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN BATCH OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN CYCLE_ID OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN CYCLE_RESULT OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN CYCLE_RESULT_LOCAL OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN CYCLE_RESULT_TEXT OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN CYCLE_TYPE OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN DATA_TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN DATA_TIMESTAMP_UTC OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN END_TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN PARAM_SET_NAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN PROCESS_CELL OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN PRODUCT OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the physical deletion of the record in the source, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. String (YYYY-MM-DD HH:MM:SS.SSSSSS) identifying the timestamp of the physical deletion of the record in the source in CAVEAU Refine Layer</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. SAP Facility code identifying the source site of the record. It is populated by the AWS Glue Job based on the content of source_system_cnf manual table.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the first insert, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. String (YYYY-MM-DD HH:MM:SS.SSSSSS) identifying the timestamp of the first insert of the record in CAVEAU Refine Layer</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Record status code (A = active, D = deleted).</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the last update transaction on the record, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. String (YYYY-MM-DD HH:MM:SS.SSSSSS) identifying the timestamp of the last update transaction on the record in CAVEAU Refine Layer</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_COMMENT OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_MEANING OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_MEANING_LOCAL OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_NODENAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_USERFULLNAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN SIGN_USERNAME OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN SITE OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN START_TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN TIMESTAMP OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN TIMESTAMP_UTC OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>COLUMN UNIT OF TABLE PAW_CYCLEREPORT_HEADER</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the last Job run, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. This is a Source system identifier in CAVEAU Architecture.</t>
   </si>
   <si>
     <t>SOURCE(S)</t>
@@ -679,13 +682,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -693,13 +696,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -707,13 +710,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -721,13 +724,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -735,13 +738,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -749,13 +752,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -763,13 +766,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -777,13 +780,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -791,13 +794,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -805,13 +808,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -819,13 +822,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -833,13 +836,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -847,13 +850,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -861,13 +864,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -875,13 +878,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -889,13 +892,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -903,13 +906,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -917,13 +920,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -931,13 +934,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -945,13 +948,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -959,13 +962,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -973,13 +976,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -987,13 +990,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1001,13 +1004,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1015,13 +1018,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1029,13 +1032,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1043,13 +1046,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1057,13 +1060,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1071,13 +1074,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1085,13 +1088,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1099,13 +1102,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1113,13 +1116,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1127,13 +1130,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1141,13 +1144,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1155,13 +1158,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1172,10 +1175,10 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1183,13 +1186,13 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1197,10 +1200,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
         <v>85</v>
@@ -1211,13 +1214,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1225,13 +1228,13 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1241,7 +1244,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1252,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1266,10 +1269,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1280,10 +1283,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1294,10 +1297,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1308,10 +1311,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1322,10 +1325,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -1336,10 +1339,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1350,10 +1353,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1364,10 +1367,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1378,10 +1381,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1392,10 +1395,10 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1406,10 +1409,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1420,10 +1423,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1434,10 +1437,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1448,10 +1451,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1462,10 +1465,10 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -1476,10 +1479,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1490,10 +1493,10 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1504,10 +1507,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1518,10 +1521,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1529,156 +1532,296 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
